--- a/src/main/resources/xlsx/pcs/prList-3.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-3.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>入党时间</t>
   </si>
   <si>
-    <t>职别</t>
-  </si>
-  <si>
     <t>职务</t>
   </si>
   <si>
@@ -66,23 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表名单
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（党员大会选举阶段，党委组织部汇总）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：      年   月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +80,27 @@
   </si>
   <si>
     <t>全校共有党员mc名，其中：在职教职工党员tc名，学生党员sc名，离退休党员rc名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">中国共产党xxx第xx次党员代表大会代表名单
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（党员大会选举阶段，党委组织部汇总）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,6 +239,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -246,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +701,7 @@
   <dimension ref="A1:O272"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,64 +723,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
+      <c r="A1" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
+      <c r="A2" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
@@ -791,19 +792,19 @@
         <v>3</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -822,27 +823,27 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
+      <c r="A5" s="7" t="s">
+        <v>11</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
